--- a/DATA_goal/Junction_Flooding_146.xlsx
+++ b/DATA_goal/Junction_Flooding_146.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41578.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.74</v>
+        <v>2.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.61</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>149.41</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.1</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.95</v>
+        <v>2.7</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41578.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>2.71</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>27.08</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41578.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>51.01</v>
+        <v>5.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41578.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.77</v>
+        <v>3.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.63</v>
+        <v>2.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.78</v>
+        <v>4.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>166.62</v>
+        <v>16.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.85</v>
+        <v>3.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.98</v>
+        <v>3.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41578.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>59.09</v>
+        <v>5.91</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41578.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>54.47</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>3.01</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41578.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.36</v>
+        <v>2.14</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.61</v>
+        <v>4.66</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.17</v>
+        <v>3.82</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>60.98</v>
+        <v>6.1</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.85</v>
+        <v>1.99</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.88</v>
+        <v>2.39</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>247.9</v>
+        <v>24.79</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.79</v>
+        <v>4.68</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.53</v>
+        <v>3.15</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.41</v>
+        <v>3.04</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>55.31</v>
+        <v>5.53</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41578.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.65</v>
+        <v>0.27</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>35.11</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.07</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41578.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>47.24</v>
+        <v>4.72</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>38.77</v>
+        <v>3.88</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>62.12</v>
+        <v>6.21</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.95</v>
+        <v>1.9</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.22</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>251.33</v>
+        <v>25.13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>47.41</v>
+        <v>4.74</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>31.99</v>
+        <v>3.2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.82</v>
+        <v>3.08</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>56.23</v>
+        <v>5.62</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_146.xlsx
+++ b/DATA_goal/Junction_Flooding_146.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44827.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44827.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.49</v>
+        <v>44.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.6</v>
+        <v>36.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.87</v>
+        <v>58.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.01</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.75</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.94</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.87</v>
+        <v>238.75</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.52</v>
+        <v>45.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3</v>
+        <v>29.99</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.38</v>
+        <v>53.77</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44827.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.38</v>
+        <v>33.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.29</v>
+        <v>112.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.12</v>
+        <v>31.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44827.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_146.xlsx
+++ b/DATA_goal/Junction_Flooding_146.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44827.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44827.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.4</v>
+        <v>20.395</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.175</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.786</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.9</v>
+        <v>44.901</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.01</v>
+        <v>36.007</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.627</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>58.68</v>
+        <v>58.677</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.96</v>
+        <v>24.959</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.084</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.8</v>
+        <v>15.799</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.22</v>
+        <v>18.221</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.01</v>
+        <v>19.006</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.48</v>
+        <v>5.485</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.75</v>
+        <v>22.751</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.94</v>
+        <v>13.943</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.179</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.75</v>
+        <v>238.746</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.15</v>
+        <v>45.151</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.99</v>
+        <v>29.994</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.98</v>
+        <v>15.976</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.225</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.26</v>
+        <v>30.258</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.81</v>
+        <v>11.811</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.85</v>
+        <v>13.852</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.95</v>
+        <v>18.946</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>53.77</v>
+        <v>53.765</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.287000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44827.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.9</v>
+        <v>9.901</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.35</v>
+        <v>7.351</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.94</v>
+        <v>21.936</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>17.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.47</v>
+        <v>7.465</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.75</v>
+        <v>33.751</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.166</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.446</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.51</v>
+        <v>7.511</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.282</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.77</v>
+        <v>2.769</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.07</v>
+        <v>11.066</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.93</v>
+        <v>6.934</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.87</v>
+        <v>112.865</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.21</v>
+        <v>22.208</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>14.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.77</v>
+        <v>7.771</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.083</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.68</v>
+        <v>16.684</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.828</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.828</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.25</v>
+        <v>9.252000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.16</v>
+        <v>31.165</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.989</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44827.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_146.xlsx
+++ b/DATA_goal/Junction_Flooding_146.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,43 +967,43 @@
         <v>44827.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.66</v>
+        <v>4.658</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.44</v>
+        <v>3.439</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.679</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.45</v>
+        <v>10.446</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.092000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.74</v>
+        <v>17.738</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>5.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.62</v>
+        <v>2.624</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.375</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.322</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.42</v>
+        <v>4.416</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.404</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
@@ -1012,10 +1012,10 @@
         <v>5.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.419</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.19</v>
@@ -1030,40 +1030,144 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.943</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.68</v>
+        <v>3.679</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.832</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.309</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.4</v>
+        <v>4.404</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.5</v>
+        <v>16.502</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44827.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_146.xlsx
+++ b/DATA_goal/Junction_Flooding_146.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,43 +967,43 @@
         <v>44827.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.658</v>
+        <v>4.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.439</v>
+        <v>3.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.446</v>
+        <v>10.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.092000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.738</v>
+        <v>17.74</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>5.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.624</v>
+        <v>2.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.375</v>
+        <v>3.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.322</v>
+        <v>4.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.416</v>
+        <v>4.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.404</v>
+        <v>1.4</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
@@ -1012,10 +1012,10 @@
         <v>5.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.419</v>
+        <v>3.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.19</v>
@@ -1030,144 +1030,40 @@
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.943</v>
+        <v>6.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.679</v>
+        <v>3.68</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.726000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.832</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.309</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.404</v>
+        <v>4.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.502</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.846</v>
+        <v>1.85</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44827.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
       </c>
     </row>
   </sheetData>
